--- a/Code/Results/Cases/Case_2_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020221377895136</v>
+        <v>1.045368349355385</v>
       </c>
       <c r="D2">
-        <v>1.037218990269712</v>
+        <v>1.052048691316282</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.038353218223896</v>
+        <v>1.059592022044555</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051184591167622</v>
+        <v>1.043169153626973</v>
       </c>
       <c r="J2">
-        <v>1.041813646063522</v>
+        <v>1.050428456872102</v>
       </c>
       <c r="K2">
-        <v>1.048183059104114</v>
+        <v>1.054798501661742</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.0493028903755</v>
+        <v>1.062321106454126</v>
       </c>
       <c r="N2">
-        <v>1.017474530657159</v>
+        <v>1.02064360924143</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024986486495398</v>
+        <v>1.046358502311191</v>
       </c>
       <c r="D3">
-        <v>1.040971547267745</v>
+        <v>1.052851754081617</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.042813939278554</v>
+        <v>1.060577287711282</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052714493356183</v>
+        <v>1.04343211435256</v>
       </c>
       <c r="J3">
-        <v>1.044818419362837</v>
+        <v>1.051066042704576</v>
       </c>
       <c r="K3">
-        <v>1.05110571340624</v>
+        <v>1.055414357420766</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.052926817292355</v>
+        <v>1.063120199222103</v>
       </c>
       <c r="N3">
-        <v>1.018497630185741</v>
+        <v>1.020858664021513</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028003443877761</v>
+        <v>1.046999347063445</v>
       </c>
       <c r="D4">
-        <v>1.043350265251714</v>
+        <v>1.053371532121558</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.045644011447994</v>
+        <v>1.061215396576055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053674138316381</v>
+        <v>1.043601173553645</v>
       </c>
       <c r="J4">
-        <v>1.046716966599804</v>
+        <v>1.051478138309381</v>
       </c>
       <c r="K4">
-        <v>1.052952196284458</v>
+        <v>1.055812345466</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.055221079210116</v>
+        <v>1.063637223167919</v>
       </c>
       <c r="N4">
-        <v>1.019143798873091</v>
+        <v>1.020997582458498</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029256466381525</v>
+        <v>1.047268793587151</v>
       </c>
       <c r="D5">
-        <v>1.044338843864227</v>
+        <v>1.053590080078998</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.046820777707783</v>
+        <v>1.06148379461951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054070512212451</v>
+        <v>1.043671983804806</v>
       </c>
       <c r="J5">
-        <v>1.04750451955314</v>
+        <v>1.05165127140101</v>
       </c>
       <c r="K5">
-        <v>1.05371810176555</v>
+        <v>1.055979536481087</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.056173866281708</v>
+        <v>1.063854569130765</v>
       </c>
       <c r="N5">
-        <v>1.019411772112495</v>
+        <v>1.02105592691647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029465973280866</v>
+        <v>1.047314036907266</v>
       </c>
       <c r="D6">
-        <v>1.044504171319641</v>
+        <v>1.053626777167469</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.047017613492939</v>
+        <v>1.061528867845834</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054136656531363</v>
+        <v>1.04368385777007</v>
       </c>
       <c r="J6">
-        <v>1.04763614174614</v>
+        <v>1.051680334630659</v>
       </c>
       <c r="K6">
-        <v>1.053846102893104</v>
+        <v>1.056007601347789</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.056333167582904</v>
+        <v>1.063891061813776</v>
       </c>
       <c r="N6">
-        <v>1.019456553726234</v>
+        <v>1.021065719866201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028020246215095</v>
+        <v>1.047002947282537</v>
       </c>
       <c r="D7">
-        <v>1.043363519100586</v>
+        <v>1.053374452240461</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.045659785897238</v>
+        <v>1.061218982386278</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053679462178298</v>
+        <v>1.043602120754516</v>
       </c>
       <c r="J7">
-        <v>1.046727531101036</v>
+        <v>1.051480452162619</v>
       </c>
       <c r="K7">
-        <v>1.052962470607378</v>
+        <v>1.055814579965242</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.055233855926768</v>
+        <v>1.063640127399063</v>
       </c>
       <c r="N7">
-        <v>1.019147393838161</v>
+        <v>1.02099836228372</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02184587773892</v>
+        <v>1.045702944957851</v>
       </c>
       <c r="D8">
-        <v>1.038497668878523</v>
+        <v>1.05232006004288</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.039872699925056</v>
+        <v>1.0599248773989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051708023586968</v>
+        <v>1.043258248746006</v>
       </c>
       <c r="J8">
-        <v>1.04283881388567</v>
+        <v>1.050644027944677</v>
       </c>
       <c r="K8">
-        <v>1.04918024232417</v>
+        <v>1.055006738593913</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.050538355497663</v>
+        <v>1.0625911719607</v>
       </c>
       <c r="N8">
-        <v>1.017823645392356</v>
+        <v>1.02071633679934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010429368600586</v>
+        <v>1.043413338651473</v>
       </c>
       <c r="D9">
-        <v>1.029525667951726</v>
+        <v>1.050463218992363</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.029220687668024</v>
+        <v>1.057648948229222</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047992730025587</v>
+        <v>1.04264393866365</v>
       </c>
       <c r="J9">
-        <v>1.035619139131278</v>
+        <v>1.049166604473236</v>
       </c>
       <c r="K9">
-        <v>1.042157209652398</v>
+        <v>1.0535793266671</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.041856824339022</v>
+        <v>1.060742484803834</v>
       </c>
       <c r="N9">
-        <v>1.015364072638412</v>
+        <v>1.020217572898167</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002415671712931</v>
+        <v>1.041887739302098</v>
       </c>
       <c r="D10">
-        <v>1.023248356681421</v>
+        <v>1.049226138440306</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.021779259402476</v>
+        <v>1.05613470152473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045339703122572</v>
+        <v>1.042228794609955</v>
       </c>
       <c r="J10">
-        <v>1.030533773318689</v>
+        <v>1.048179309153318</v>
       </c>
       <c r="K10">
-        <v>1.037210169633997</v>
+        <v>1.052625137737065</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.035766110241314</v>
+        <v>1.05950987069093</v>
       </c>
       <c r="N10">
-        <v>1.013630610250253</v>
+        <v>1.019883869085494</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9988398811159022</v>
+        <v>1.041227332786072</v>
       </c>
       <c r="D11">
-        <v>1.020453061342944</v>
+        <v>1.048690672331202</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.018467963967572</v>
+        <v>1.055479746444942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044145740924498</v>
+        <v>1.042047707254182</v>
       </c>
       <c r="J11">
-        <v>1.028261002157273</v>
+        <v>1.047751249087295</v>
       </c>
       <c r="K11">
-        <v>1.034999302612543</v>
+        <v>1.052211358349703</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.033049807712114</v>
+        <v>1.058976106380616</v>
       </c>
       <c r="N11">
-        <v>1.012855719538228</v>
+        <v>1.019739091317705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9974948254239645</v>
+        <v>1.040982056879285</v>
       </c>
       <c r="D12">
-        <v>1.01940252660496</v>
+        <v>1.048491806901958</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.017223836170107</v>
+        <v>1.055236576402252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043695147804349</v>
+        <v>1.041980244204204</v>
       </c>
       <c r="J12">
-        <v>1.027405588462851</v>
+        <v>1.047592165621366</v>
       </c>
       <c r="K12">
-        <v>1.03416721195106</v>
+        <v>1.052057571236096</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.032028330363072</v>
+        <v>1.058777837996938</v>
       </c>
       <c r="N12">
-        <v>1.012564051663107</v>
+        <v>1.019685272288327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9977841229230179</v>
+        <v>1.041034668101606</v>
       </c>
       <c r="D13">
-        <v>1.019628434489519</v>
+        <v>1.048534462817612</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.01749135993938</v>
+        <v>1.055288732238373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043792128259572</v>
+        <v>1.041994724264888</v>
       </c>
       <c r="J13">
-        <v>1.0275895943324</v>
+        <v>1.047626293309127</v>
       </c>
       <c r="K13">
-        <v>1.034346199594009</v>
+        <v>1.052090563204871</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.032248018415068</v>
+        <v>1.058820367434741</v>
       </c>
       <c r="N13">
-        <v>1.012626792336941</v>
+        <v>1.01969681855533</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9987290478459817</v>
+        <v>1.041207057620861</v>
       </c>
       <c r="D14">
-        <v>1.020366477340388</v>
+        <v>1.04867423342552</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.018365417644719</v>
+        <v>1.055459643696829</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044108641542974</v>
+        <v>1.042042134798375</v>
       </c>
       <c r="J14">
-        <v>1.028190525441253</v>
+        <v>1.047738100886943</v>
       </c>
       <c r="K14">
-        <v>1.034930746905965</v>
+        <v>1.052198648112846</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.032965631476428</v>
+        <v>1.058959717543604</v>
       </c>
       <c r="N14">
-        <v>1.012831689641855</v>
+        <v>1.019734643477919</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9993089850719566</v>
+        <v>1.04131327627357</v>
       </c>
       <c r="D15">
-        <v>1.020819568279013</v>
+        <v>1.048760354778536</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.018902052170498</v>
+        <v>1.05556496240953</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044302704893881</v>
+        <v>1.042071319612213</v>
       </c>
       <c r="J15">
-        <v>1.028559276272736</v>
+        <v>1.047806978254027</v>
       </c>
       <c r="K15">
-        <v>1.03528944760414</v>
+        <v>1.052265230745475</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.033406096898658</v>
+        <v>1.059045575159322</v>
       </c>
       <c r="N15">
-        <v>1.012957419018688</v>
+        <v>1.01975794308633</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002650676353525</v>
+        <v>1.041931572288888</v>
       </c>
       <c r="D16">
-        <v>1.023432191405867</v>
+        <v>1.049261679799953</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.021997076686241</v>
+        <v>1.056178184044563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045417964215479</v>
+        <v>1.042240784840051</v>
       </c>
       <c r="J16">
-        <v>1.03068307065005</v>
+        <v>1.048207706440885</v>
       </c>
       <c r="K16">
-        <v>1.037355403185163</v>
+        <v>1.052652586119055</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.035944663375573</v>
+        <v>1.059545294199121</v>
       </c>
       <c r="N16">
-        <v>1.013681509565385</v>
+        <v>1.019893471590337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004717854226514</v>
+        <v>1.042319463551775</v>
       </c>
       <c r="D17">
-        <v>1.025049919176791</v>
+        <v>1.049576201289909</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.023914115774865</v>
+        <v>1.056563036035462</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046105225471451</v>
+        <v>1.042346730743013</v>
       </c>
       <c r="J17">
-        <v>1.031995931777017</v>
+        <v>1.048458924449948</v>
       </c>
       <c r="K17">
-        <v>1.038632539812671</v>
+        <v>1.052895401149961</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.037515445446582</v>
+        <v>1.059858745996276</v>
       </c>
       <c r="N17">
-        <v>1.014129079815183</v>
+        <v>1.01997840974535</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005913463279955</v>
+        <v>1.042545732093715</v>
       </c>
       <c r="D18">
-        <v>1.025986111669135</v>
+        <v>1.049759675398607</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.025023750109745</v>
+        <v>1.056787583473404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046501756150738</v>
+        <v>1.042408399118713</v>
       </c>
       <c r="J18">
-        <v>1.032754913638408</v>
+        <v>1.048605402116746</v>
       </c>
       <c r="K18">
-        <v>1.039370875967697</v>
+        <v>1.053036972227908</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.038424082090424</v>
+        <v>1.060041573780298</v>
       </c>
       <c r="N18">
-        <v>1.014387809874804</v>
+        <v>1.0200279255284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006319442727422</v>
+        <v>1.042622886887806</v>
       </c>
       <c r="D19">
-        <v>1.026304092563416</v>
+        <v>1.049822238534638</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.025400680536505</v>
+        <v>1.05686416016193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046636236357672</v>
+        <v>1.04242940470921</v>
       </c>
       <c r="J19">
-        <v>1.033012572189001</v>
+        <v>1.048655338119951</v>
       </c>
       <c r="K19">
-        <v>1.039621526603011</v>
+        <v>1.053085234314244</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.038732638141189</v>
+        <v>1.060103912744317</v>
       </c>
       <c r="N19">
-        <v>1.014475640442799</v>
+        <v>1.020044804509578</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004497121162597</v>
+        <v>1.042277844613174</v>
       </c>
       <c r="D20">
-        <v>1.024877122283516</v>
+        <v>1.04954245413499</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.023709324614268</v>
+        <v>1.056521737835934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046031939652739</v>
+        <v>1.042335376995992</v>
       </c>
       <c r="J20">
-        <v>1.031855780298303</v>
+        <v>1.048431976670555</v>
       </c>
       <c r="K20">
-        <v>1.038496201206529</v>
+        <v>1.052869355475552</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.037347703387857</v>
+        <v>1.059825115926661</v>
       </c>
       <c r="N20">
-        <v>1.014081302101113</v>
+        <v>1.019969299497578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9984512641021126</v>
+        <v>1.041156292416202</v>
       </c>
       <c r="D21">
-        <v>1.020149485332725</v>
+        <v>1.048633073616206</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.018108427003607</v>
+        <v>1.055409311505555</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044015634971917</v>
+        <v>1.042028179073168</v>
       </c>
       <c r="J21">
-        <v>1.028013880342075</v>
+        <v>1.04770517862689</v>
       </c>
       <c r="K21">
-        <v>1.034758917110771</v>
+        <v>1.052166822310024</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.032754663484268</v>
+        <v>1.058918682530652</v>
       </c>
       <c r="N21">
-        <v>1.012771460062049</v>
+        <v>1.019723506141941</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.994551991180686</v>
+        <v>1.040451292912901</v>
       </c>
       <c r="D22">
-        <v>1.0171058756529</v>
+        <v>1.048061486990912</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.014504536196022</v>
+        <v>1.054710518430471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042706638690684</v>
+        <v>1.041833879495807</v>
       </c>
       <c r="J22">
-        <v>1.025533179233095</v>
+        <v>1.047247732444781</v>
       </c>
       <c r="K22">
-        <v>1.032345911414636</v>
+        <v>1.051724585433815</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.029794029429776</v>
+        <v>1.058348745831917</v>
       </c>
       <c r="N22">
-        <v>1.011925594671375</v>
+        <v>1.01956872251778</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9966286963831912</v>
+        <v>1.040825010784879</v>
       </c>
       <c r="D23">
-        <v>1.018726322799379</v>
+        <v>1.048364478835099</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.016423111139801</v>
+        <v>1.055080901576645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043404585052225</v>
+        <v>1.041936990491848</v>
       </c>
       <c r="J23">
-        <v>1.026854623567832</v>
+        <v>1.047490278617246</v>
       </c>
       <c r="K23">
-        <v>1.033631277436255</v>
+        <v>1.051959073293739</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.031370650779966</v>
+        <v>1.058650882329327</v>
       </c>
       <c r="N23">
-        <v>1.012376186352141</v>
+        <v>1.0196507992615</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>1.004596892201266</v>
+        <v>1.042296650363957</v>
       </c>
       <c r="D24">
-        <v>1.024955224585338</v>
+        <v>1.049557702962855</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.023801887265628</v>
+        <v>1.056540398499029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046065067739817</v>
+        <v>1.042340507661282</v>
       </c>
       <c r="J24">
-        <v>1.031919129653306</v>
+        <v>1.048444153377544</v>
       </c>
       <c r="K24">
-        <v>1.038557827097888</v>
+        <v>1.05288112457644</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.03742352216177</v>
+        <v>1.059840311917866</v>
       </c>
       <c r="N24">
-        <v>1.014102897980361</v>
+        <v>1.019973416110467</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013448528186663</v>
+        <v>1.044005116547456</v>
       </c>
       <c r="D25">
-        <v>1.031895101799357</v>
+        <v>1.050943117328685</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.032031754073746</v>
+        <v>1.058236798277751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048983195789297</v>
+        <v>1.042803741704036</v>
       </c>
       <c r="J25">
-        <v>1.037531619989513</v>
+        <v>1.049548969746077</v>
       </c>
       <c r="K25">
-        <v>1.044017671664742</v>
+        <v>1.053948804412902</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.044152365750052</v>
+        <v>1.061220445280507</v>
       </c>
       <c r="N25">
-        <v>1.01601580419716</v>
+        <v>1.020346726964031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045368349355385</v>
+        <v>1.020221377895135</v>
       </c>
       <c r="D2">
-        <v>1.052048691316282</v>
+        <v>1.03721899026971</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.059592022044555</v>
+        <v>1.038353218223894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043169153626973</v>
+        <v>1.051184591167621</v>
       </c>
       <c r="J2">
-        <v>1.050428456872102</v>
+        <v>1.04181364606352</v>
       </c>
       <c r="K2">
-        <v>1.054798501661742</v>
+        <v>1.048183059104112</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.062321106454126</v>
+        <v>1.049302890375498</v>
       </c>
       <c r="N2">
-        <v>1.02064360924143</v>
+        <v>1.017474530657159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046358502311191</v>
+        <v>1.024986486495398</v>
       </c>
       <c r="D3">
-        <v>1.052851754081617</v>
+        <v>1.040971547267746</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.060577287711282</v>
+        <v>1.042813939278554</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04343211435256</v>
+        <v>1.052714493356184</v>
       </c>
       <c r="J3">
-        <v>1.051066042704576</v>
+        <v>1.044818419362838</v>
       </c>
       <c r="K3">
-        <v>1.055414357420766</v>
+        <v>1.05110571340624</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.063120199222103</v>
+        <v>1.052926817292355</v>
       </c>
       <c r="N3">
-        <v>1.020858664021513</v>
+        <v>1.018497630185742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046999347063445</v>
+        <v>1.02800344387776</v>
       </c>
       <c r="D4">
-        <v>1.053371532121558</v>
+        <v>1.043350265251714</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.061215396576055</v>
+        <v>1.045644011447994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043601173553645</v>
+        <v>1.05367413831638</v>
       </c>
       <c r="J4">
-        <v>1.051478138309381</v>
+        <v>1.046716966599804</v>
       </c>
       <c r="K4">
-        <v>1.055812345466</v>
+        <v>1.052952196284458</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.063637223167919</v>
+        <v>1.055221079210116</v>
       </c>
       <c r="N4">
-        <v>1.020997582458498</v>
+        <v>1.019143798873091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047268793587151</v>
+        <v>1.029256466381525</v>
       </c>
       <c r="D5">
-        <v>1.053590080078998</v>
+        <v>1.044338843864226</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.06148379461951</v>
+        <v>1.046820777707783</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043671983804806</v>
+        <v>1.054070512212451</v>
       </c>
       <c r="J5">
-        <v>1.05165127140101</v>
+        <v>1.047504519553139</v>
       </c>
       <c r="K5">
-        <v>1.055979536481087</v>
+        <v>1.053718101765549</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.063854569130765</v>
+        <v>1.056173866281707</v>
       </c>
       <c r="N5">
-        <v>1.02105592691647</v>
+        <v>1.019411772112495</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047314036907266</v>
+        <v>1.029465973280865</v>
       </c>
       <c r="D6">
-        <v>1.053626777167469</v>
+        <v>1.04450417131964</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.061528867845834</v>
+        <v>1.047017613492938</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04368385777007</v>
+        <v>1.054136656531363</v>
       </c>
       <c r="J6">
-        <v>1.051680334630659</v>
+        <v>1.047636141746139</v>
       </c>
       <c r="K6">
-        <v>1.056007601347789</v>
+        <v>1.053846102893103</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.063891061813776</v>
+        <v>1.056333167582903</v>
       </c>
       <c r="N6">
-        <v>1.021065719866201</v>
+        <v>1.019456553726234</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047002947282537</v>
+        <v>1.028020246215096</v>
       </c>
       <c r="D7">
-        <v>1.053374452240461</v>
+        <v>1.043363519100586</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.061218982386278</v>
+        <v>1.045659785897238</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043602120754516</v>
+        <v>1.053679462178298</v>
       </c>
       <c r="J7">
-        <v>1.051480452162619</v>
+        <v>1.046727531101036</v>
       </c>
       <c r="K7">
-        <v>1.055814579965242</v>
+        <v>1.052962470607378</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.063640127399063</v>
+        <v>1.055233855926768</v>
       </c>
       <c r="N7">
-        <v>1.02099836228372</v>
+        <v>1.019147393838161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045702944957851</v>
+        <v>1.021845877738919</v>
       </c>
       <c r="D8">
-        <v>1.05232006004288</v>
+        <v>1.038497668878523</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.0599248773989</v>
+        <v>1.039872699925055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043258248746006</v>
+        <v>1.051708023586968</v>
       </c>
       <c r="J8">
-        <v>1.050644027944677</v>
+        <v>1.042838813885669</v>
       </c>
       <c r="K8">
-        <v>1.055006738593913</v>
+        <v>1.049180242324169</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.0625911719607</v>
+        <v>1.050538355497662</v>
       </c>
       <c r="N8">
-        <v>1.02071633679934</v>
+        <v>1.017823645392356</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043413338651473</v>
+        <v>1.010429368600586</v>
       </c>
       <c r="D9">
-        <v>1.050463218992363</v>
+        <v>1.029525667951727</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.057648948229222</v>
+        <v>1.029220687668024</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04264393866365</v>
+        <v>1.047992730025587</v>
       </c>
       <c r="J9">
-        <v>1.049166604473236</v>
+        <v>1.035619139131279</v>
       </c>
       <c r="K9">
-        <v>1.0535793266671</v>
+        <v>1.042157209652398</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.060742484803834</v>
+        <v>1.041856824339022</v>
       </c>
       <c r="N9">
-        <v>1.020217572898167</v>
+        <v>1.015364072638412</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041887739302098</v>
+        <v>1.002415671712932</v>
       </c>
       <c r="D10">
-        <v>1.049226138440306</v>
+        <v>1.023248356681421</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.05613470152473</v>
+        <v>1.021779259402477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042228794609955</v>
+        <v>1.045339703122572</v>
       </c>
       <c r="J10">
-        <v>1.048179309153318</v>
+        <v>1.03053377331869</v>
       </c>
       <c r="K10">
-        <v>1.052625137737065</v>
+        <v>1.037210169633997</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.05950987069093</v>
+        <v>1.035766110241314</v>
       </c>
       <c r="N10">
-        <v>1.019883869085494</v>
+        <v>1.013630610250253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041227332786072</v>
+        <v>0.9988398811159016</v>
       </c>
       <c r="D11">
-        <v>1.048690672331202</v>
+        <v>1.020453061342944</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.055479746444942</v>
+        <v>1.018467963967572</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042047707254182</v>
+        <v>1.044145740924497</v>
       </c>
       <c r="J11">
-        <v>1.047751249087295</v>
+        <v>1.028261002157272</v>
       </c>
       <c r="K11">
-        <v>1.052211358349703</v>
+        <v>1.034999302612542</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.058976106380616</v>
+        <v>1.033049807712114</v>
       </c>
       <c r="N11">
-        <v>1.019739091317705</v>
+        <v>1.012855719538228</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040982056879285</v>
+        <v>0.9974948254239654</v>
       </c>
       <c r="D12">
-        <v>1.048491806901958</v>
+        <v>1.01940252660496</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.055236576402252</v>
+        <v>1.017223836170108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041980244204204</v>
+        <v>1.04369514780435</v>
       </c>
       <c r="J12">
-        <v>1.047592165621366</v>
+        <v>1.027405588462851</v>
       </c>
       <c r="K12">
-        <v>1.052057571236096</v>
+        <v>1.034167211951061</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.058777837996938</v>
+        <v>1.032028330363073</v>
       </c>
       <c r="N12">
-        <v>1.019685272288327</v>
+        <v>1.012564051663108</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041034668101606</v>
+        <v>0.9977841229230169</v>
       </c>
       <c r="D13">
-        <v>1.048534462817612</v>
+        <v>1.019628434489518</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.055288732238373</v>
+        <v>1.017491359939379</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041994724264888</v>
+        <v>1.043792128259572</v>
       </c>
       <c r="J13">
-        <v>1.047626293309127</v>
+        <v>1.027589594332399</v>
       </c>
       <c r="K13">
-        <v>1.052090563204871</v>
+        <v>1.034346199594008</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.058820367434741</v>
+        <v>1.032248018415068</v>
       </c>
       <c r="N13">
-        <v>1.01969681855533</v>
+        <v>1.01262679233694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041207057620861</v>
+        <v>0.9987290478459819</v>
       </c>
       <c r="D14">
-        <v>1.04867423342552</v>
+        <v>1.020366477340388</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.055459643696829</v>
+        <v>1.018365417644719</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042042134798375</v>
+        <v>1.044108641542974</v>
       </c>
       <c r="J14">
-        <v>1.047738100886943</v>
+        <v>1.028190525441253</v>
       </c>
       <c r="K14">
-        <v>1.052198648112846</v>
+        <v>1.034930746905965</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.058959717543604</v>
+        <v>1.032965631476428</v>
       </c>
       <c r="N14">
-        <v>1.019734643477919</v>
+        <v>1.012831689641855</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04131327627357</v>
+        <v>0.9993089850719559</v>
       </c>
       <c r="D15">
-        <v>1.048760354778536</v>
+        <v>1.020819568279012</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.05556496240953</v>
+        <v>1.018902052170498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042071319612213</v>
+        <v>1.044302704893881</v>
       </c>
       <c r="J15">
-        <v>1.047806978254027</v>
+        <v>1.028559276272735</v>
       </c>
       <c r="K15">
-        <v>1.052265230745475</v>
+        <v>1.03528944760414</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.059045575159322</v>
+        <v>1.033406096898657</v>
       </c>
       <c r="N15">
-        <v>1.01975794308633</v>
+        <v>1.012957419018687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041931572288888</v>
+        <v>1.002650676353525</v>
       </c>
       <c r="D16">
-        <v>1.049261679799953</v>
+        <v>1.023432191405868</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.056178184044563</v>
+        <v>1.021997076686241</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042240784840051</v>
+        <v>1.045417964215479</v>
       </c>
       <c r="J16">
-        <v>1.048207706440885</v>
+        <v>1.030683070650051</v>
       </c>
       <c r="K16">
-        <v>1.052652586119055</v>
+        <v>1.037355403185164</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.059545294199121</v>
+        <v>1.035944663375573</v>
       </c>
       <c r="N16">
-        <v>1.019893471590337</v>
+        <v>1.013681509565385</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042319463551775</v>
+        <v>1.004717854226514</v>
       </c>
       <c r="D17">
-        <v>1.049576201289909</v>
+        <v>1.025049919176792</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.056563036035462</v>
+        <v>1.023914115774865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042346730743013</v>
+        <v>1.046105225471451</v>
       </c>
       <c r="J17">
-        <v>1.048458924449948</v>
+        <v>1.031995931777017</v>
       </c>
       <c r="K17">
-        <v>1.052895401149961</v>
+        <v>1.038632539812671</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.059858745996276</v>
+        <v>1.037515445446582</v>
       </c>
       <c r="N17">
-        <v>1.01997840974535</v>
+        <v>1.014129079815183</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042545732093715</v>
+        <v>1.005913463279955</v>
       </c>
       <c r="D18">
-        <v>1.049759675398607</v>
+        <v>1.025986111669135</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.056787583473404</v>
+        <v>1.025023750109745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042408399118713</v>
+        <v>1.046501756150738</v>
       </c>
       <c r="J18">
-        <v>1.048605402116746</v>
+        <v>1.032754913638408</v>
       </c>
       <c r="K18">
-        <v>1.053036972227908</v>
+        <v>1.039370875967697</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.060041573780298</v>
+        <v>1.038424082090424</v>
       </c>
       <c r="N18">
-        <v>1.0200279255284</v>
+        <v>1.014387809874804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042622886887806</v>
+        <v>1.006319442727421</v>
       </c>
       <c r="D19">
-        <v>1.049822238534638</v>
+        <v>1.026304092563415</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.05686416016193</v>
+        <v>1.025400680536504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04242940470921</v>
+        <v>1.046636236357671</v>
       </c>
       <c r="J19">
-        <v>1.048655338119951</v>
+        <v>1.033012572189</v>
       </c>
       <c r="K19">
-        <v>1.053085234314244</v>
+        <v>1.03962152660301</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.060103912744317</v>
+        <v>1.038732638141189</v>
       </c>
       <c r="N19">
-        <v>1.020044804509578</v>
+        <v>1.014475640442799</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042277844613174</v>
+        <v>1.004497121162597</v>
       </c>
       <c r="D20">
-        <v>1.04954245413499</v>
+        <v>1.024877122283514</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.056521737835934</v>
+        <v>1.023709324614267</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042335376995992</v>
+        <v>1.046031939652738</v>
       </c>
       <c r="J20">
-        <v>1.048431976670555</v>
+        <v>1.031855780298302</v>
       </c>
       <c r="K20">
-        <v>1.052869355475552</v>
+        <v>1.038496201206528</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.059825115926661</v>
+        <v>1.037347703387856</v>
       </c>
       <c r="N20">
-        <v>1.019969299497578</v>
+        <v>1.014081302101113</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041156292416202</v>
+        <v>0.9984512641021123</v>
       </c>
       <c r="D21">
-        <v>1.048633073616206</v>
+        <v>1.020149485332725</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.055409311505555</v>
+        <v>1.018108427003606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042028179073168</v>
+        <v>1.044015634971917</v>
       </c>
       <c r="J21">
-        <v>1.04770517862689</v>
+        <v>1.028013880342074</v>
       </c>
       <c r="K21">
-        <v>1.052166822310024</v>
+        <v>1.034758917110771</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.058918682530652</v>
+        <v>1.032754663484268</v>
       </c>
       <c r="N21">
-        <v>1.019723506141941</v>
+        <v>1.012771460062049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040451292912901</v>
+        <v>0.994551991180686</v>
       </c>
       <c r="D22">
-        <v>1.048061486990912</v>
+        <v>1.0171058756529</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.054710518430471</v>
+        <v>1.014504536196022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041833879495807</v>
+        <v>1.042706638690683</v>
       </c>
       <c r="J22">
-        <v>1.047247732444781</v>
+        <v>1.025533179233095</v>
       </c>
       <c r="K22">
-        <v>1.051724585433815</v>
+        <v>1.032345911414636</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.058348745831917</v>
+        <v>1.029794029429776</v>
       </c>
       <c r="N22">
-        <v>1.01956872251778</v>
+        <v>1.011925594671375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040825010784879</v>
+        <v>0.9966286963831907</v>
       </c>
       <c r="D23">
-        <v>1.048364478835099</v>
+        <v>1.018726322799378</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.055080901576645</v>
+        <v>1.0164231111398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041936990491848</v>
+        <v>1.043404585052224</v>
       </c>
       <c r="J23">
-        <v>1.047490278617246</v>
+        <v>1.026854623567831</v>
       </c>
       <c r="K23">
-        <v>1.051959073293739</v>
+        <v>1.033631277436255</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.058650882329327</v>
+        <v>1.031370650779965</v>
       </c>
       <c r="N23">
-        <v>1.0196507992615</v>
+        <v>1.012376186352141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042296650363957</v>
+        <v>1.004596892201267</v>
       </c>
       <c r="D24">
-        <v>1.049557702962855</v>
+        <v>1.02495522458534</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.056540398499029</v>
+        <v>1.023801887265629</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042340507661282</v>
+        <v>1.046065067739817</v>
       </c>
       <c r="J24">
-        <v>1.048444153377544</v>
+        <v>1.031919129653307</v>
       </c>
       <c r="K24">
-        <v>1.05288112457644</v>
+        <v>1.038557827097889</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.059840311917866</v>
+        <v>1.037423522161771</v>
       </c>
       <c r="N24">
-        <v>1.019973416110467</v>
+        <v>1.014102897980361</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044005116547456</v>
+        <v>1.013448528186663</v>
       </c>
       <c r="D25">
-        <v>1.050943117328685</v>
+        <v>1.031895101799357</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.058236798277751</v>
+        <v>1.032031754073747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042803741704036</v>
+        <v>1.048983195789297</v>
       </c>
       <c r="J25">
-        <v>1.049548969746077</v>
+        <v>1.037531619989513</v>
       </c>
       <c r="K25">
-        <v>1.053948804412902</v>
+        <v>1.044017671664742</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.061220445280507</v>
+        <v>1.044152365750053</v>
       </c>
       <c r="N25">
-        <v>1.020346726964031</v>
+        <v>1.01601580419716</v>
       </c>
     </row>
   </sheetData>
